--- a/Code/Results/Cases/Case_2_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.59958763293564</v>
+        <v>10.59528094111439</v>
       </c>
       <c r="C2">
-        <v>8.424035404075104</v>
+        <v>5.446275288111754</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.48403336798674</v>
+        <v>16.42572648880487</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>29.66013057021624</v>
+        <v>32.59227319600827</v>
       </c>
       <c r="H2">
-        <v>10.04125920860629</v>
+        <v>15.06553459527227</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.98317479281158</v>
+        <v>9.82829173266871</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.05601451706934</v>
+        <v>18.54925090105182</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.58718298677602</v>
+        <v>10.2867226849991</v>
       </c>
       <c r="C3">
-        <v>7.91335265048585</v>
+        <v>5.20473591566587</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.33064639192694</v>
+        <v>15.49831418698885</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>28.73894295697596</v>
+        <v>32.51606518544829</v>
       </c>
       <c r="H3">
-        <v>10.0271962806703</v>
+        <v>15.10828100784827</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.14247343681252</v>
+        <v>9.61393358514103</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.31855713244872</v>
+        <v>18.62029197098168</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.93176586539412</v>
+        <v>10.09535070360622</v>
       </c>
       <c r="C4">
-        <v>7.585264182569933</v>
+        <v>5.049469065128872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.94706036766242</v>
+        <v>14.90462964268383</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>28.20451895637812</v>
+        <v>32.48158791785345</v>
       </c>
       <c r="H4">
-        <v>10.02821261601156</v>
+        <v>15.13761027031671</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.59977790242639</v>
+        <v>9.482419914307274</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.48242472470717</v>
+        <v>18.66584579338654</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.65608398776012</v>
+        <v>10.0170156362008</v>
       </c>
       <c r="C5">
-        <v>7.447905665840407</v>
+        <v>4.984490625622399</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.36744152689472</v>
+        <v>14.65687243619023</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>27.99455213243068</v>
+        <v>32.47063311013577</v>
       </c>
       <c r="H5">
-        <v>10.03092469888472</v>
+        <v>15.15033490889851</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.37191843628112</v>
+        <v>9.428934765716122</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.54991744809182</v>
+        <v>18.68489728848311</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.60978544711123</v>
+        <v>10.00399106641571</v>
       </c>
       <c r="C6">
-        <v>7.424876416984858</v>
+        <v>4.973599409822829</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.27023220882554</v>
+        <v>14.61538965735225</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>27.9601581007987</v>
+        <v>32.46900086772143</v>
       </c>
       <c r="H6">
-        <v>10.03151012221935</v>
+        <v>15.15249442291738</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.3336764891145</v>
+        <v>9.420062531296672</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.56116903821277</v>
+        <v>18.68809029057998</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.92808284384735</v>
+        <v>10.09429548398489</v>
       </c>
       <c r="C7">
-        <v>7.583426534988503</v>
+        <v>5.048599586487948</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.93930783935689</v>
+        <v>14.90131149321191</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>28.2016556779495</v>
+        <v>32.48142765169382</v>
       </c>
       <c r="H7">
-        <v>10.0282400557974</v>
+        <v>15.13777875387051</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.59673211194482</v>
+        <v>9.481698049230626</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.48333200098311</v>
+        <v>18.66610075085097</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.25746591156219</v>
+        <v>10.48936474862728</v>
       </c>
       <c r="C8">
-        <v>8.25095871731655</v>
+        <v>5.364461671333793</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.75406550905937</v>
+        <v>16.11113517942834</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>29.33602032994946</v>
+        <v>32.56344101360031</v>
       </c>
       <c r="H8">
-        <v>10.03432864526954</v>
+        <v>15.07963225761446</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.6987716721718</v>
+        <v>9.754408107862897</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.14601405113743</v>
+        <v>18.57334532802086</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.6008001986098</v>
+        <v>11.243479979921</v>
       </c>
       <c r="C9">
-        <v>9.445753908447593</v>
+        <v>5.927027970871957</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.80420686825496</v>
+        <v>18.34456681579281</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>31.80882554322709</v>
+        <v>32.82185842347321</v>
       </c>
       <c r="H9">
-        <v>10.12879229436748</v>
+        <v>14.99017634773178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.65218854892428</v>
+        <v>10.28652981058575</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.50349026234891</v>
+        <v>18.4067282550447</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.16858337860799</v>
+        <v>11.77832176481347</v>
       </c>
       <c r="C10">
-        <v>10.25633462397186</v>
+        <v>6.303956343374518</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.25533719418193</v>
+        <v>19.97768788970688</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>33.77896635813327</v>
+        <v>33.07076166922681</v>
       </c>
       <c r="H10">
-        <v>10.25693930459872</v>
+        <v>14.93957713440493</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.96528064349046</v>
+        <v>10.67140587729016</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.03968289048664</v>
+        <v>18.29352453032176</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.8500483865218</v>
+        <v>12.01624075562886</v>
       </c>
       <c r="C11">
-        <v>10.61127594539962</v>
+        <v>6.467261492619055</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.77593770392547</v>
+        <v>20.67881211414785</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>34.70951151570653</v>
+        <v>33.19662909873117</v>
       </c>
       <c r="H11">
-        <v>10.32989890796981</v>
+        <v>14.91987227630466</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.53737259593471</v>
+        <v>10.8443072271304</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.82967690591659</v>
+        <v>18.24400303805143</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.10368923432838</v>
+        <v>12.10547067470369</v>
       </c>
       <c r="C12">
-        <v>10.74378157558222</v>
+        <v>6.527910091434188</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.34531137828238</v>
+        <v>20.938337035268</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>35.06695972337079</v>
+        <v>33.2460871488336</v>
       </c>
       <c r="H12">
-        <v>10.35980026531887</v>
+        <v>14.9128893017747</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.75049958783941</v>
+        <v>10.90940003272977</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.75022210013965</v>
+        <v>18.2255329800916</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.04925700544683</v>
+        <v>12.08629323027129</v>
       </c>
       <c r="C13">
-        <v>10.71532730167114</v>
+        <v>6.51490157271466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.22296193245064</v>
+        <v>20.88270892996426</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>34.989748447597</v>
+        <v>33.23535605579701</v>
       </c>
       <c r="H13">
-        <v>10.35325667831787</v>
+        <v>14.91437187657428</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.70475301821147</v>
+        <v>10.8953991144226</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.76733220534669</v>
+        <v>18.22949828865894</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.87100316347857</v>
+        <v>12.02359957585927</v>
       </c>
       <c r="C14">
-        <v>10.62221488419522</v>
+        <v>6.472275059599284</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.82290555390392</v>
+        <v>20.70028295251247</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>34.73881635138524</v>
+        <v>33.20066221729594</v>
       </c>
       <c r="H14">
-        <v>10.33231238594842</v>
+        <v>14.91928817278544</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.55497633214449</v>
+        <v>10.84967046222993</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.82313914020927</v>
+        <v>18.24247783845579</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.76124716782509</v>
+        <v>11.98508273231952</v>
       </c>
       <c r="C15">
-        <v>10.56493567733517</v>
+        <v>6.446009445722336</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.57704091112315</v>
+        <v>20.58776457455382</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>34.58577873692185</v>
+        <v>33.1796442265484</v>
       </c>
       <c r="H15">
-        <v>10.31978443412551</v>
+        <v>14.92236197416813</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.46278021287251</v>
+        <v>10.82160877094863</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.85732938352685</v>
+        <v>18.25046495600283</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.123421865055</v>
+        <v>11.76265691611473</v>
       </c>
       <c r="C16">
-        <v>10.23286734200065</v>
+        <v>6.293118127950457</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.15502326020055</v>
+        <v>19.93102973485188</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>33.71885380274415</v>
+        <v>33.06278842791031</v>
       </c>
       <c r="H16">
-        <v>10.25248020511606</v>
+        <v>14.94093176807136</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.92739489188947</v>
+        <v>10.66005660597531</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.05342107627442</v>
+        <v>18.29680050653977</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72411094728319</v>
+        <v>11.62475972623316</v>
       </c>
       <c r="C17">
-        <v>10.0256736309103</v>
+        <v>6.197220046620273</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.27046203084162</v>
+        <v>19.51746472535995</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>33.19589053816659</v>
+        <v>32.99432365787069</v>
       </c>
       <c r="H17">
-        <v>10.21506201456592</v>
+        <v>14.95317402081125</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.59256752032978</v>
+        <v>10.56034155189111</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.1739196359271</v>
+        <v>18.32573081871879</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.49144194838021</v>
+        <v>11.54494306740361</v>
       </c>
       <c r="C18">
-        <v>9.905197036791131</v>
+        <v>6.141294642570876</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.75699863915131</v>
+        <v>19.27565751831151</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>32.89831461052318</v>
+        <v>32.9561359101499</v>
       </c>
       <c r="H18">
-        <v>10.19491017323499</v>
+        <v>14.96052713391502</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.39759997979545</v>
+        <v>10.50278659796059</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.24332429131622</v>
+        <v>18.34255679126056</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.41214541129488</v>
+        <v>11.51783523657579</v>
       </c>
       <c r="C19">
-        <v>9.864179500774812</v>
+        <v>6.122228069290953</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.58232526686825</v>
+        <v>19.19310878275819</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>32.79811020006029</v>
+        <v>32.9434114444341</v>
       </c>
       <c r="H19">
-        <v>10.18831753024911</v>
+        <v>14.96307023004627</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.33117458866059</v>
+        <v>10.48326700550979</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.26684226629437</v>
+        <v>18.34828576916837</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.76692732081603</v>
+        <v>11.63949174166996</v>
       </c>
       <c r="C20">
-        <v>10.04786420132371</v>
+        <v>6.207508121112555</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.36510574568318</v>
+        <v>19.56189649573813</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>33.25122696327647</v>
+        <v>33.00148869886643</v>
       </c>
       <c r="H20">
-        <v>10.21890227555753</v>
+        <v>14.9518385351402</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.62845636636921</v>
+        <v>10.57097774709443</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.16108281026478</v>
+        <v>18.32263189521039</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.92347921902806</v>
+        <v>12.04203837281727</v>
       </c>
       <c r="C21">
-        <v>10.64961518415012</v>
+        <v>6.484827963062171</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.94058111408459</v>
+        <v>20.75402779168701</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>34.81238215489937</v>
+        <v>33.21080413073251</v>
       </c>
       <c r="H21">
-        <v>10.33840119363364</v>
+        <v>14.91783112326509</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.59906366688389</v>
+        <v>10.86311293765009</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.80674599178373</v>
+        <v>18.23865777002333</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.65369699893052</v>
+        <v>12.30004897673694</v>
       </c>
       <c r="C22">
-        <v>11.03185103538443</v>
+        <v>6.659121438335227</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.58660470895116</v>
+        <v>21.49833965841757</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>35.86235828909034</v>
+        <v>33.35805184831899</v>
       </c>
       <c r="H22">
-        <v>10.42983211083425</v>
+        <v>14.8983973510091</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.21300866651682</v>
+        <v>11.05179016122435</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.57553636045727</v>
+        <v>18.18542271599629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.26626100007847</v>
+        <v>12.16283611394691</v>
       </c>
       <c r="C23">
-        <v>10.82882429555029</v>
+        <v>6.566738811266752</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.71125675096847</v>
+        <v>21.10426083909906</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>35.29918849947943</v>
+        <v>33.27851556009056</v>
       </c>
       <c r="H23">
-        <v>10.37975757944949</v>
+        <v>14.9085132705864</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.88715835025319</v>
+        <v>10.95131662669635</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.69892859419804</v>
+        <v>18.21368503887624</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.74757970456763</v>
+        <v>11.63283306536188</v>
       </c>
       <c r="C24">
-        <v>10.03783608075078</v>
+        <v>6.202859349263517</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.32233268656822</v>
+        <v>19.54182148932415</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>33.22619977315213</v>
+        <v>32.99824572633592</v>
       </c>
       <c r="H24">
-        <v>10.2171618686507</v>
+        <v>14.9524413274609</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.61223872382819</v>
+        <v>10.5661698264306</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.16688593380968</v>
+        <v>18.32403231543167</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.99440960355813</v>
+        <v>11.04239903897623</v>
       </c>
       <c r="C25">
-        <v>9.134559333769657</v>
+        <v>5.781123642674929</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.48565585760716</v>
+        <v>17.71725841758899</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>31.11313386567279</v>
+        <v>32.7415312460634</v>
       </c>
       <c r="H25">
-        <v>10.0935478383692</v>
+        <v>15.01173089412739</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.14555119431709</v>
+        <v>10.14333475365413</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67560633625052</v>
+        <v>18.45017785440143</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.59528094111439</v>
+        <v>14.59958763293566</v>
       </c>
       <c r="C2">
-        <v>5.446275288111754</v>
+        <v>8.424035404075182</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.42572648880487</v>
+        <v>29.48403336798676</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>32.59227319600827</v>
+        <v>29.66013057021628</v>
       </c>
       <c r="H2">
-        <v>15.06553459527227</v>
+        <v>10.04125920860629</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.82829173266871</v>
+        <v>12.9831747928116</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.54925090105182</v>
+        <v>12.05601451706938</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.2867226849991</v>
+        <v>13.58718298677607</v>
       </c>
       <c r="C3">
-        <v>5.20473591566587</v>
+        <v>7.913352650485862</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.49831418698885</v>
+        <v>27.3306463919269</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>32.51606518544829</v>
+        <v>28.73894295697571</v>
       </c>
       <c r="H3">
-        <v>15.10828100784827</v>
+        <v>10.02719628067026</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.61393358514103</v>
+        <v>12.14247343681256</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.62029197098168</v>
+        <v>12.31855713244859</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.09535070360622</v>
+        <v>12.93176586539421</v>
       </c>
       <c r="C4">
-        <v>5.049469065128872</v>
+        <v>7.585264182569748</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.90462964268383</v>
+        <v>25.94706036766237</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>32.48158791785345</v>
+        <v>28.20451895637826</v>
       </c>
       <c r="H4">
-        <v>15.13761027031671</v>
+        <v>10.02821261601152</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.482419914307274</v>
+        <v>11.59977790242639</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.66584579338654</v>
+        <v>12.48242472470717</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.0170156362008</v>
+        <v>12.6560839877602</v>
       </c>
       <c r="C5">
-        <v>4.984490625622399</v>
+        <v>7.447905665840405</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.65687243619023</v>
+        <v>25.36744152689477</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>32.47063311013577</v>
+        <v>27.99455213243063</v>
       </c>
       <c r="H5">
-        <v>15.15033490889851</v>
+        <v>10.03092469888456</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.428934765716122</v>
+        <v>11.37191843628117</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.68489728848311</v>
+        <v>12.54991744809172</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.00399106641571</v>
+        <v>12.60978544711126</v>
       </c>
       <c r="C6">
-        <v>4.973599409822829</v>
+        <v>7.424876416984687</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.61538965735225</v>
+        <v>25.27023220882554</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>32.46900086772143</v>
+        <v>27.96015810079881</v>
       </c>
       <c r="H6">
-        <v>15.15249442291738</v>
+        <v>10.03151012221941</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.420062531296672</v>
+        <v>11.33367648911448</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.68809029057998</v>
+        <v>12.56116903821284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.09429548398489</v>
+        <v>12.92808284384731</v>
       </c>
       <c r="C7">
-        <v>5.048599586487948</v>
+        <v>7.583426534988515</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.90131149321191</v>
+        <v>25.93930783935679</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.48142765169382</v>
+        <v>28.20165567794955</v>
       </c>
       <c r="H7">
-        <v>15.13777875387051</v>
+        <v>10.0282400557975</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.481698049230626</v>
+        <v>11.59673211194478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.66610075085097</v>
+        <v>12.48333200098318</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.48936474862728</v>
+        <v>14.2574659115622</v>
       </c>
       <c r="C8">
-        <v>5.364461671333793</v>
+        <v>8.250958717316513</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.11113517942834</v>
+        <v>28.75406550905944</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>32.56344101360031</v>
+        <v>29.33602032994934</v>
       </c>
       <c r="H8">
-        <v>15.07963225761446</v>
+        <v>10.0343286452695</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.754408107862897</v>
+        <v>12.69877167217185</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.57334532802086</v>
+        <v>12.14601405113733</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.243479979921</v>
+        <v>16.60080019860973</v>
       </c>
       <c r="C9">
-        <v>5.927027970871957</v>
+        <v>9.445753908447605</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.34456681579281</v>
+        <v>33.80420686825495</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>32.82185842347321</v>
+        <v>31.80882554322696</v>
       </c>
       <c r="H9">
-        <v>14.99017634773178</v>
+        <v>10.12879229436757</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.28652981058575</v>
+        <v>14.65218854892422</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.4067282550447</v>
+        <v>11.50349026234903</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.77832176481347</v>
+        <v>18.16858337860799</v>
       </c>
       <c r="C10">
-        <v>6.303956343374518</v>
+        <v>10.25633462397188</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.97768788970688</v>
+        <v>37.25533719418195</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>33.07076166922681</v>
+        <v>33.77896635813337</v>
       </c>
       <c r="H10">
-        <v>14.93957713440493</v>
+        <v>10.25693930459874</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.67140587729016</v>
+        <v>15.96528064349047</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.29352453032176</v>
+        <v>11.03968289048664</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.01624075562886</v>
+        <v>18.85004838652177</v>
       </c>
       <c r="C11">
-        <v>6.467261492619055</v>
+        <v>10.61127594539972</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.67881211414785</v>
+        <v>38.77593770392559</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>33.19662909873117</v>
+        <v>34.70951151570648</v>
       </c>
       <c r="H11">
-        <v>14.91987227630466</v>
+        <v>10.32989890796991</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.8443072271304</v>
+        <v>16.53737259593471</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.24400303805143</v>
+        <v>10.82967690591666</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.10547067470369</v>
+        <v>19.10368923432851</v>
       </c>
       <c r="C12">
-        <v>6.527910091434188</v>
+        <v>10.74378157558229</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.938337035268</v>
+        <v>39.34531137828259</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>33.2460871488336</v>
+        <v>35.06695972337068</v>
       </c>
       <c r="H12">
-        <v>14.9128893017747</v>
+        <v>10.35980026531873</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.90940003272977</v>
+        <v>16.75049958783951</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.2255329800916</v>
+        <v>10.75022210013952</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.08629323027129</v>
+        <v>19.04925700544683</v>
       </c>
       <c r="C13">
-        <v>6.51490157271466</v>
+        <v>10.71532730167124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.88270892996426</v>
+        <v>39.22296193245059</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>33.23535605579701</v>
+        <v>34.98974844759692</v>
       </c>
       <c r="H13">
-        <v>14.91437187657428</v>
+        <v>10.35325667831784</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.8953991144226</v>
+        <v>16.7047530182115</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.22949828865894</v>
+        <v>10.76733220534662</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.02359957585927</v>
+        <v>18.87100316347856</v>
       </c>
       <c r="C14">
-        <v>6.472275059599284</v>
+        <v>10.62221488419531</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.70028295251247</v>
+        <v>38.82290555390387</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>33.20066221729594</v>
+        <v>34.7388163513852</v>
       </c>
       <c r="H14">
-        <v>14.91928817278544</v>
+        <v>10.33231238594835</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.84967046222993</v>
+        <v>16.5549763321445</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.24247783845579</v>
+        <v>10.82313914020927</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.98508273231952</v>
+        <v>18.76124716782507</v>
       </c>
       <c r="C15">
-        <v>6.446009445722336</v>
+        <v>10.56493567733533</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.58776457455382</v>
+        <v>38.57704091112305</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>33.1796442265484</v>
+        <v>34.58577873692186</v>
       </c>
       <c r="H15">
-        <v>14.92236197416813</v>
+        <v>10.31978443412549</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.82160877094863</v>
+        <v>16.46278021287251</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.25046495600283</v>
+        <v>10.85732938352685</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.76265691611473</v>
+        <v>18.12342186505511</v>
       </c>
       <c r="C16">
-        <v>6.293118127950457</v>
+        <v>10.23286734200056</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.93102973485188</v>
+        <v>37.15502326020057</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>33.06278842791031</v>
+        <v>33.71885380274409</v>
       </c>
       <c r="H16">
-        <v>14.94093176807136</v>
+        <v>10.252480205116</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.66005660597531</v>
+        <v>15.9273948918895</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.29680050653977</v>
+        <v>11.05342107627429</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.62475972623316</v>
+        <v>17.72411094728314</v>
       </c>
       <c r="C17">
-        <v>6.197220046620273</v>
+        <v>10.02567363091038</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.51746472535995</v>
+        <v>36.27046203084162</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>32.99432365787069</v>
+        <v>33.19589053816663</v>
       </c>
       <c r="H17">
-        <v>14.95317402081125</v>
+        <v>10.21506201456591</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.56034155189111</v>
+        <v>15.59256752032978</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.32573081871879</v>
+        <v>11.17391963592717</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.54494306740361</v>
+        <v>17.49144194838021</v>
       </c>
       <c r="C18">
-        <v>6.141294642570876</v>
+        <v>9.905197036791238</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.27565751831151</v>
+        <v>35.75699863915126</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>32.9561359101499</v>
+        <v>32.89831461052311</v>
       </c>
       <c r="H18">
-        <v>14.96052713391502</v>
+        <v>10.19491017323499</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.50278659796059</v>
+        <v>15.39759997979549</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.34255679126056</v>
+        <v>11.24332429131622</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.51783523657579</v>
+        <v>17.41214541129487</v>
       </c>
       <c r="C19">
-        <v>6.122228069290953</v>
+        <v>9.86417950077472</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.19310878275819</v>
+        <v>35.58232526686834</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>32.9434114444341</v>
+        <v>32.79811020006028</v>
       </c>
       <c r="H19">
-        <v>14.96307023004627</v>
+        <v>10.18831753024909</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.48326700550979</v>
+        <v>15.33117458866057</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.34828576916837</v>
+        <v>11.26684226629436</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.63949174166996</v>
+        <v>17.76692732081603</v>
       </c>
       <c r="C20">
-        <v>6.207508121112555</v>
+        <v>10.04786420132371</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.56189649573813</v>
+        <v>36.36510574568326</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>33.00148869886643</v>
+        <v>33.2512269632765</v>
       </c>
       <c r="H20">
-        <v>14.9518385351402</v>
+        <v>10.21890227555757</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.57097774709443</v>
+        <v>15.62845636636919</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.32263189521039</v>
+        <v>11.16108281026481</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.04203837281727</v>
+        <v>18.92347921902809</v>
       </c>
       <c r="C21">
-        <v>6.484827963062171</v>
+        <v>10.64961518414994</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.75402779168701</v>
+        <v>38.94058111408457</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>33.21080413073251</v>
+        <v>34.81238215489947</v>
       </c>
       <c r="H21">
-        <v>14.91783112326509</v>
+        <v>10.33840119363373</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.86311293765009</v>
+        <v>16.59906366688389</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.23865777002333</v>
+        <v>10.80674599178377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.30004897673694</v>
+        <v>19.65369699893047</v>
       </c>
       <c r="C22">
-        <v>6.659121438335227</v>
+        <v>11.03185103538461</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.49833965841757</v>
+        <v>40.58660470895106</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>33.35805184831899</v>
+        <v>35.86235828909034</v>
       </c>
       <c r="H22">
-        <v>14.8983973510091</v>
+        <v>10.42983211083429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.05179016122435</v>
+        <v>17.21300866651682</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.18542271599629</v>
+        <v>10.57553636045743</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.16283611394691</v>
+        <v>19.26626100007838</v>
       </c>
       <c r="C23">
-        <v>6.566738811266752</v>
+        <v>10.82882429555022</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.10426083909906</v>
+        <v>39.71125675096842</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>33.27851556009056</v>
+        <v>35.29918849947926</v>
       </c>
       <c r="H23">
-        <v>14.9085132705864</v>
+        <v>10.37975757944948</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.95131662669635</v>
+        <v>16.88715835025308</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.21368503887624</v>
+        <v>10.69892859419803</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.63283306536188</v>
+        <v>17.74757970456759</v>
       </c>
       <c r="C24">
-        <v>6.202859349263517</v>
+        <v>10.03783608075076</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.54182148932415</v>
+        <v>36.32233268656823</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>32.99824572633592</v>
+        <v>33.22619977315219</v>
       </c>
       <c r="H24">
-        <v>14.9524413274609</v>
+        <v>10.21716186865072</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.5661698264306</v>
+        <v>15.61223872382817</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.32403231543167</v>
+        <v>11.16688593380968</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.04239903897623</v>
+        <v>15.99440960355807</v>
       </c>
       <c r="C25">
-        <v>5.781123642674929</v>
+        <v>9.134559333769822</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.71725841758899</v>
+        <v>32.48565585760716</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>32.7415312460634</v>
+        <v>31.11313386567267</v>
       </c>
       <c r="H25">
-        <v>15.01173089412739</v>
+        <v>10.09354783836924</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.14333475365413</v>
+        <v>14.14555119431708</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.45017785440143</v>
+        <v>11.67560633625052</v>
       </c>
       <c r="O25">
         <v>0</v>
